--- a/data/inputs.xlsx
+++ b/data/inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuinvest-my.sharepoint.com/personal/felix_vogt_tuinvest_de/Documents/04_MSMIF/TUIC-PortfolioModel/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{AFB54F55-06F0-5F48-8724-3AE54FA80DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F836DFEE-2E3F-D442-B392-F4F31BA379AC}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{AFB54F55-06F0-5F48-8724-3AE54FA80DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76D5CB19-BD07-F545-AF00-20E819385D1F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{9CF08E29-48AC-0A47-82FF-8C3444418925}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{9CF08E29-48AC-0A47-82FF-8C3444418925}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,22 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Equity</t>
-  </si>
-  <si>
-    <t>Ticker</t>
-  </si>
-  <si>
-    <t>Buy-in-date</t>
-  </si>
-  <si>
-    <t>Buy-in-amount</t>
-  </si>
-  <si>
-    <t>Exit-date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>PayPal</t>
   </si>
@@ -78,6 +63,24 @@
   </si>
   <si>
     <t>01.05.2023</t>
+  </si>
+  <si>
+    <t>equity</t>
+  </si>
+  <si>
+    <t>ticker</t>
+  </si>
+  <si>
+    <t>buy_in_date</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>buy_in_amount</t>
+  </si>
+  <si>
+    <t>exit_date</t>
   </si>
 </sst>
 </file>
@@ -449,75 +452,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0EE013-C17D-F34F-B9F7-B69AA393D8C9}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="5" width="15.83203125" customWidth="1"/>
+    <col min="3" max="6" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
       <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
         <v>1200</v>
       </c>
     </row>

--- a/data/inputs.xlsx
+++ b/data/inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuinvest-my.sharepoint.com/personal/felix_vogt_tuinvest_de/Documents/04_MSMIF/TUIC-PortfolioModel/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{AFB54F55-06F0-5F48-8724-3AE54FA80DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76D5CB19-BD07-F545-AF00-20E819385D1F}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="8_{AFB54F55-06F0-5F48-8724-3AE54FA80DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B03E5BB2-7F99-A445-B8B0-8F0C5E4D1C59}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{9CF08E29-48AC-0A47-82FF-8C3444418925}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{9CF08E29-48AC-0A47-82FF-8C3444418925}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,35 +36,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>PayPal</t>
   </si>
   <si>
-    <t>01.06.2023</t>
-  </si>
-  <si>
-    <t>01.12.2022</t>
-  </si>
-  <si>
     <t>PYPL</t>
   </si>
   <si>
     <t>Alzchem Group AG</t>
   </si>
   <si>
-    <t>TPE.F</t>
-  </si>
-  <si>
     <t>PVA TepLa</t>
   </si>
   <si>
-    <t>ACT.F</t>
-  </si>
-  <si>
-    <t>01.05.2023</t>
-  </si>
-  <si>
     <t>equity</t>
   </si>
   <si>
@@ -81,18 +66,175 @@
   </si>
   <si>
     <t>exit_date</t>
+  </si>
+  <si>
+    <t>Barry Callebaut</t>
+  </si>
+  <si>
+    <t>Krones</t>
+  </si>
+  <si>
+    <t>Defama</t>
+  </si>
+  <si>
+    <t>MO-BRUK</t>
+  </si>
+  <si>
+    <t>Ulta Beauty</t>
+  </si>
+  <si>
+    <t>Deutsche Rohstoff</t>
+  </si>
+  <si>
+    <t>M1 Klinkiken</t>
+  </si>
+  <si>
+    <t>Italmobiliare</t>
+  </si>
+  <si>
+    <t>Berkshire Hathaway B</t>
+  </si>
+  <si>
+    <t>Mensch und Maschine</t>
+  </si>
+  <si>
+    <t>Match Group</t>
+  </si>
+  <si>
+    <t>Steico</t>
+  </si>
+  <si>
+    <t>Evolution Gaming</t>
+  </si>
+  <si>
+    <t>Verve Group SE</t>
+  </si>
+  <si>
+    <t>Takkt</t>
+  </si>
+  <si>
+    <t>21.05.2025</t>
+  </si>
+  <si>
+    <t>03.03.2025</t>
+  </si>
+  <si>
+    <t>17.09.2024</t>
+  </si>
+  <si>
+    <t>24.06.2024</t>
+  </si>
+  <si>
+    <t>20.06.2024</t>
+  </si>
+  <si>
+    <t>08.04.2024</t>
+  </si>
+  <si>
+    <t>21.12.2023</t>
+  </si>
+  <si>
+    <t>22.08.2023</t>
+  </si>
+  <si>
+    <t>04.05.2023</t>
+  </si>
+  <si>
+    <t>26.01.2022</t>
+  </si>
+  <si>
+    <t>20.01.2022</t>
+  </si>
+  <si>
+    <t>17.01.2022</t>
+  </si>
+  <si>
+    <t>08.07.2021</t>
+  </si>
+  <si>
+    <t>14.01.2021</t>
+  </si>
+  <si>
+    <t>03.12.2020</t>
+  </si>
+  <si>
+    <t>29.04.2019</t>
+  </si>
+  <si>
+    <t>BCLN.SG</t>
+  </si>
+  <si>
+    <t>ULTA</t>
+  </si>
+  <si>
+    <t>ITM.MI</t>
+  </si>
+  <si>
+    <t>BRK-B</t>
+  </si>
+  <si>
+    <t>MTCH</t>
+  </si>
+  <si>
+    <t>VER.ST</t>
+  </si>
+  <si>
+    <t>HFG.DE</t>
+  </si>
+  <si>
+    <t>DR0.DE</t>
+  </si>
+  <si>
+    <t>EVO.ST</t>
+  </si>
+  <si>
+    <t>KRN.DE</t>
+  </si>
+  <si>
+    <t>MBR.WA</t>
+  </si>
+  <si>
+    <t>M12.DE</t>
+  </si>
+  <si>
+    <t>MUM.DE</t>
+  </si>
+  <si>
+    <t>ST5.DE</t>
+  </si>
+  <si>
+    <t>TPE.DE</t>
+  </si>
+  <si>
+    <t>ACT.DE</t>
+  </si>
+  <si>
+    <t>DEF.DE</t>
+  </si>
+  <si>
+    <t>TTK.DE</t>
+  </si>
+  <si>
+    <t>Hellofresh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -116,8 +258,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0EE013-C17D-F34F-B9F7-B69AA393D8C9}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,23 +610,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -490,50 +634,322 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>12</v>
       </c>
       <c r="E2">
-        <v>1500</v>
+        <v>661.2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="E3">
-        <v>1000</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <v>848.41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>994.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>53</v>
+      </c>
+      <c r="E7">
+        <v>1473.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>997.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+      <c r="E11">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>572.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>1200</v>
+      <c r="E14">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>865.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>32</v>
+      </c>
+      <c r="E16">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>1052.48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18">
+        <v>400</v>
+      </c>
+      <c r="E18">
+        <v>486.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>801.94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20">
+        <v>75</v>
+      </c>
+      <c r="E20">
+        <v>1045.5</v>
       </c>
     </row>
   </sheetData>
